--- a/inst/da_arbitragem.xlsx
+++ b/inst/da_arbitragem.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -12037,7 +12037,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -12149,7 +12149,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -12205,7 +12205,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -13121,7 +13121,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -14256,7 +14256,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -15605,7 +15605,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -16348,7 +16348,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Compromisso</t>
+          <t>Convencao</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">

--- a/inst/da_arbitragem.xlsx
+++ b/inst/da_arbitragem.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M290"/>
+  <dimension ref="A1:N290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,6 +430,11 @@
           <t>liminar</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>camara_arbitral</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -483,6 +488,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,6 +549,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -595,6 +610,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -651,6 +671,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -707,6 +732,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -763,6 +793,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Conselho Arbitral da ASSOHONDA - Associação Brasileira de distribuidores Honda</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -819,6 +854,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Centro de Arbitragem e Mediação da Câmara de Comércio Brasil-Canadá CAM-CCBC</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -875,6 +915,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -931,6 +976,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -987,6 +1037,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1043,6 +1098,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Centro de Mediação e Arbitragem de São Paulo – TASP</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1099,6 +1159,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1155,6 +1220,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1211,6 +1281,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1267,6 +1342,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral CAMVALE - Câmara de Arbitragem e Mediação do Vale do Paraíba</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1328,6 +1408,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1384,6 +1469,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1440,6 +1530,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Conselho Arbitral do Estado de São Paulo - CAESP</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1496,6 +1591,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1552,6 +1652,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1608,6 +1713,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1664,6 +1774,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1720,6 +1835,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Câmara de Mediação, Conciliação e Arbitragem de Osasco</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1776,6 +1896,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1832,6 +1957,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1888,6 +2018,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1944,6 +2079,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2000,6 +2140,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Centro de Mediação e Arbitragem de São Paulo – TASP</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2061,6 +2206,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2122,6 +2272,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2178,6 +2333,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2239,6 +2399,11 @@
           <t>Parcial</t>
         </is>
       </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2295,6 +2460,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2356,6 +2526,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2412,6 +2587,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2468,6 +2648,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2524,6 +2709,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2580,6 +2770,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Câmara de Arbitragem do Mercado</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2641,6 +2836,11 @@
           <t>Parcial</t>
         </is>
       </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2697,6 +2897,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2753,6 +2958,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2809,6 +3019,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2865,6 +3080,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2921,6 +3141,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2982,6 +3207,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3038,6 +3268,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3094,6 +3329,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3150,6 +3390,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3206,6 +3451,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3267,6 +3517,11 @@
           <t>Parcial</t>
         </is>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3323,6 +3578,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3384,6 +3644,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3440,6 +3705,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Câmara de Conciliação, Mediação e Arbitragem CIESP/FIESP</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3496,6 +3766,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3552,6 +3827,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3608,6 +3888,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3664,6 +3949,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3720,6 +4010,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3776,6 +4071,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3832,6 +4132,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3888,6 +4193,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3949,6 +4259,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4010,6 +4325,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4071,6 +4391,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4132,6 +4457,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4188,6 +4518,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4244,6 +4579,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4305,6 +4645,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4361,6 +4706,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4422,6 +4772,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4478,6 +4833,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4534,6 +4894,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4590,6 +4955,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4646,6 +5016,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4702,6 +5077,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Conselho Arbitral do Estado de São Paulo - CAESP</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4758,6 +5138,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4819,6 +5204,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4875,6 +5265,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4931,6 +5326,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4992,6 +5392,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5053,6 +5458,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5114,6 +5524,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5170,6 +5585,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5231,6 +5651,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5292,6 +5717,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5348,6 +5778,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5404,6 +5839,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5460,6 +5900,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5516,6 +5961,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5572,6 +6022,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5628,6 +6083,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5684,6 +6144,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5740,6 +6205,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5796,6 +6266,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Centro de Arbitragem e Mediação da Câmara de Comércio Brasil-Canadá CAM-CCBC</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5852,6 +6327,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5908,6 +6388,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5964,6 +6449,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6020,6 +6510,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6081,6 +6576,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6137,6 +6637,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>CCI</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6193,6 +6698,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6254,6 +6764,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6310,6 +6825,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6371,6 +6891,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6427,6 +6952,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6483,6 +7013,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6539,6 +7074,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Câmara de Conciliação, Mediação e Arbitragem CIESP/FIESP</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6595,6 +7135,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6651,6 +7196,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6707,6 +7257,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>ARBITRIUM – Câmarade Conciliação Mediação, e Arbitragem</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6763,6 +7318,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6819,6 +7379,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6875,6 +7440,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Centro de Arbitragem e Mediação da Câmara de Comércio Brasil-Canadá CAM-CCBC</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6931,6 +7501,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6987,6 +7562,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7043,6 +7623,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7099,6 +7684,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7160,6 +7750,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7216,6 +7811,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7272,6 +7872,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Centro de Arbitragem e Mediação da Câmara de Comércio Brasil-Canadá CAM-CCBC</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7333,6 +7938,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7389,6 +7999,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7445,6 +8060,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7501,6 +8121,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7562,6 +8187,11 @@
           <t>Parcial</t>
         </is>
       </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7623,6 +8253,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7679,6 +8314,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7735,6 +8375,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7791,6 +8436,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7847,6 +8497,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7903,6 +8558,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7959,6 +8619,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8015,6 +8680,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8076,6 +8746,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8132,6 +8807,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8193,6 +8873,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8249,6 +8934,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8305,6 +8995,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>Centro Brasileiro de Mediação e Arbitragem –CBMA</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8361,6 +9056,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>Conselho Arbitral do Estado de São Paulo - CAESP</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8417,6 +9117,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8473,6 +9178,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8529,6 +9239,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8590,6 +9305,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8646,6 +9366,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8702,6 +9427,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8758,6 +9488,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8814,6 +9549,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8875,6 +9615,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8936,6 +9681,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8992,6 +9742,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>Câmara de Arbitragem do Mercado</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9053,6 +9808,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9109,6 +9869,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9165,6 +9930,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9221,6 +9991,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9277,6 +10052,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9333,6 +10113,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>Centro de Arbitragem e Mediação da Câmara de Comércio Brasil-Canadá CAM-CCBC</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9394,6 +10179,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9455,6 +10245,11 @@
           <t>Parcial</t>
         </is>
       </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9511,6 +10306,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>Centro de Arbitragem EIRELI</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9567,6 +10367,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>Tribunal Arbitral e Mediação de São Paulo</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9623,6 +10428,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9684,6 +10494,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9745,6 +10560,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9801,6 +10621,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9857,6 +10682,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9913,6 +10743,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9969,6 +10804,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10025,6 +10865,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10086,6 +10931,11 @@
           <t>Parcial</t>
         </is>
       </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10142,6 +10992,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10198,6 +11053,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>Centro de Arbitragem e Mediação da Câmara de Comércio Brasil-Canadá CAM-CCBC</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10254,6 +11114,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>TNA – Tribunal Nacional de Mediação e Arbitragem</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10315,6 +11180,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10371,6 +11241,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10427,6 +11302,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10483,6 +11363,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10539,6 +11424,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10595,6 +11485,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10651,6 +11546,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10712,6 +11612,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10773,6 +11678,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10834,6 +11744,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10890,6 +11805,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>Conselho Arbitral do Estado de São Paulo - CAESP</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10946,6 +11866,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11002,6 +11927,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11058,6 +11988,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>IMAESP – Instituto de Mediação do Estado de São Paulo</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11114,6 +12049,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11170,6 +12110,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11226,6 +12171,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11282,6 +12232,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11338,6 +12293,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11394,6 +12354,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11450,6 +12415,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>Instituto Brasileiro deMediação e Arbitragem</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11506,6 +12476,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11562,6 +12537,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11618,6 +12598,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11674,6 +12659,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11730,6 +12720,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11791,6 +12786,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11847,6 +12847,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11903,6 +12908,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11959,6 +12969,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12015,6 +13030,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12071,6 +13091,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12127,6 +13152,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12183,6 +13213,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12239,6 +13274,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12295,6 +13335,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12356,6 +13401,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12412,6 +13462,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12473,6 +13528,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12529,6 +13589,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -12585,6 +13650,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>Câmara de Conciliação, Mediação e Arbitragem CIESP/FIESP</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12641,6 +13711,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12702,6 +13777,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12758,6 +13838,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12814,6 +13899,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12870,6 +13960,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12926,6 +14021,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12982,6 +14082,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13043,6 +14148,11 @@
           <t>Parcial</t>
         </is>
       </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13099,6 +14209,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13155,6 +14270,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13211,6 +14331,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -13272,6 +14397,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13328,6 +14458,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -13384,6 +14519,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -13440,6 +14580,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>Câmara da Bolsa Brasileira de Mercadorias</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -13496,6 +14641,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -13552,6 +14702,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -13608,6 +14763,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13664,6 +14824,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13720,6 +14885,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13781,6 +14951,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13837,6 +15012,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13893,6 +15073,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>Centro de Arbitragem e Mediação da Câmara de Comércio Brasil-Canadá CAM-CCBC</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13949,6 +15134,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -14005,6 +15195,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -14066,6 +15261,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -14122,6 +15322,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -14178,6 +15383,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>Conselho Arbitral do Estado de São Paulo - CAESP</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14234,6 +15444,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>Centro de Arbitragem e Mediação da Câmara de Comércio Brasil-Canadá CAM-CCBC</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -14290,6 +15505,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -14346,6 +15566,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -14402,6 +15627,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -14458,6 +15688,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -14514,6 +15749,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -14570,6 +15810,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -14626,6 +15871,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -14682,6 +15932,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14738,6 +15993,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14794,6 +16054,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>Centro de Arbitragem e Mediação da Câmara de Comércio Brasil-Canadá CAM-CCBC</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14850,6 +16115,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14906,6 +16176,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14962,6 +16237,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -15018,6 +16298,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -15074,6 +16359,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -15135,6 +16425,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -15191,6 +16486,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -15247,6 +16547,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -15303,6 +16608,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -15359,6 +16669,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -15415,6 +16730,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -15471,6 +16791,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -15527,6 +16852,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>Corte Internacional de Mediação Conciliação e Arbitragem Extrajudicial -ARBITRARE</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -15583,6 +16913,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>Câmara de Conciliação, Mediação e Arbitragem CIESP/FIESP</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -15639,6 +16974,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -15695,6 +17035,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15751,6 +17096,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>Centro de Mediação e Arbitragem de São Paulo – TASP</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15807,6 +17157,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15868,6 +17223,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15924,6 +17284,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15985,6 +17350,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -16041,6 +17411,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -16097,6 +17472,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -16153,6 +17533,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -16214,6 +17599,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -16270,6 +17660,11 @@
           <t>Sim</t>
         </is>
       </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>Câmara Arbitral do Fórum Unimed</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -16326,6 +17721,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -16382,6 +17782,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -16438,6 +17843,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -16494,6 +17904,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>Centro de Mediação e Arbitragem de São Paulo – TASP</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -16550,6 +17965,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -16606,6 +18026,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -16662,6 +18087,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -16723,6 +18153,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -16779,6 +18214,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -16840,6 +18280,11 @@
           <t>Não</t>
         </is>
       </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -16894,6 +18339,11 @@
       <c r="L290" t="inlineStr">
         <is>
           <t>Não</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
         </is>
       </c>
     </row>
